--- a/配置表/RecoverItem.xlsx
+++ b/配置表/RecoverItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,24 +392,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>recoverInterval</t>
+  </si>
+  <si>
+    <t>recoverCount</t>
+  </si>
+  <si>
+    <t>maxRecover</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
   <si>
     <t>回复时间间隔</t>
   </si>
   <si>
-    <t>每天恢复值</t>
+    <t>每次恢复值</t>
   </si>
   <si>
     <t>每天恢复的限制</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>2 mins</t>
-  </si>
-  <si>
-    <t>110 Energy</t>
   </si>
   <si>
     <t>220 Energy</t>
@@ -734,12 +749,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1836,136 +1851,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="28.0181818181818" customWidth="1"/>
-    <col min="3" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="30.5363636363636" customWidth="1"/>
-    <col min="7" max="7" width="10"/>
+    <col min="1" max="1" width="17.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
+    <col min="8" max="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
+      <c r="I3" s="15"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="19"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="19"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B5" s="6">
+        <v>120</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B8" s="6"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:13">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1973,13 +2006,11 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="17"/>
       <c r="L9" s="20"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="17"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:13">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1987,13 +2018,11 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="17"/>
       <c r="L10" s="20"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="17"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:13">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2001,13 +2030,11 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="17"/>
       <c r="L11" s="20"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="17"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:13">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2015,13 +2042,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="17"/>
       <c r="L12" s="20"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="17"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:13">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2029,386 +2054,385 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="17"/>
       <c r="L13" s="20"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:12">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:13">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="K14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
       <c r="L14" s="20"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:13">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
       <c r="L15" s="20"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:12">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:13">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="K16" s="20"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
       <c r="L16" s="20"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:12">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:13">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="K17" s="20"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
       <c r="L17" s="20"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:12">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:13">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="K18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
       <c r="L18" s="20"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:12">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:13">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="K19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="L19" s="20"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:12">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:13">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="K20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
       <c r="L20" s="20"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:12">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:13">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="K21" s="20"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
       <c r="L21" s="20"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:12">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:13">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
       <c r="L22" s="20"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:12">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:13">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="K23" s="20"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
       <c r="L23" s="20"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:12">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:13">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="K24" s="20"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="L24" s="20"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:12">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:13">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="K25" s="20"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
       <c r="L25" s="20"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:12">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:13">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="17"/>
-      <c r="K26" s="20"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17"/>
       <c r="L26" s="20"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:12">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:13">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="K27" s="20"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17"/>
       <c r="L27" s="20"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:13">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="17"/>
-      <c r="K28" s="20"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="L28" s="20"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:12">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:13">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="17"/>
-      <c r="K29" s="20"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="L29" s="20"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:12">
-      <c r="A30" s="18"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:13">
       <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="17"/>
-      <c r="K30" s="20"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
       <c r="L30" s="20"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:12">
-      <c r="A31" s="18"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:13">
       <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="K31" s="20"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="L31" s="20"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:12">
-      <c r="A32" s="18"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:13">
       <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="17"/>
-      <c r="K32" s="20"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="17"/>
       <c r="L32" s="20"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:12">
-      <c r="A33" s="18"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:13">
       <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="17"/>
-      <c r="K33" s="20"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
       <c r="L33" s="20"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:12">
-      <c r="A34" s="18"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:13">
       <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="17"/>
-      <c r="K34" s="20"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
       <c r="L34" s="20"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:12">
-      <c r="A35" s="18"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:13">
       <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="K35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17"/>
       <c r="L35" s="20"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:12">
-      <c r="A36" s="18"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:13">
       <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="17"/>
-      <c r="K36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17"/>
       <c r="L36" s="20"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:12">
-      <c r="A37" s="18"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:13">
       <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="K37" s="20"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="17"/>
       <c r="L37" s="20"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:12">
-      <c r="A38" s="18"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:13">
       <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="17"/>
-      <c r="K38" s="20"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
       <c r="L38" s="20"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:12">
-      <c r="A39" s="18"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:13">
       <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="K39" s="20"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
       <c r="L39" s="20"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:12">
-      <c r="A40" s="18"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:13">
       <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="17"/>
-      <c r="K40" s="20"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
       <c r="L40" s="20"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:12">
-      <c r="A41" s="18"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:13">
       <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="K41" s="20"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17"/>
       <c r="L41" s="20"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:12">
-      <c r="A42" s="18"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:13">
       <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="17"/>
-      <c r="K42" s="20"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
       <c r="L42" s="20"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:12">
-      <c r="A43" s="18"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:13">
       <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="K43" s="20"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
       <c r="L43" s="20"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:12">
-      <c r="A44" s="18"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:13">
       <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="17"/>
-      <c r="K44" s="20"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
       <c r="L44" s="20"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:12">
-      <c r="A45" s="18"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:13">
       <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="K45" s="20"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
       <c r="L45" s="20"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:12">
-      <c r="A46" s="18"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:13">
       <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="17"/>
-      <c r="K46" s="20"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="17"/>
       <c r="L46" s="20"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:12">
-      <c r="A47" s="18"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:13">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="18"/>
-      <c r="K47" s="20"/>
+      <c r="G47" s="18"/>
       <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G10">
+  <conditionalFormatting sqref="H7 H10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2430,206 +2454,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2697,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2742,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2789,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2836,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2883,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2930,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -2977,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/RecoverItem.xlsx
+++ b/配置表/RecoverItem.xlsx
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="15" spans="2:12">
       <c r="B5" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="14">
         <v>120</v>
